--- a/Desktop/Borang baru Edited/Digestion/Titan/RB & IQC.xlsx
+++ b/Desktop/Borang baru Edited/Digestion/Titan/RB & IQC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\Digestion\Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B050E23-ECBA-4AEA-B538-44076D19BB2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4931350C-E349-44B2-8928-9D9AC49B20C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="2" r:id="rId1"/>
@@ -953,113 +953,26 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1069,30 +982,117 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2768,7 +2768,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0.000</a:t>
+            <a:t>50.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -2972,7 +2972,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>0.500</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3194,7 +3194,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>61.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3416,7 +3416,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>11.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -4014,8 +4014,11 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="B3" t="str">
+            <v>IQC BLK POW</v>
+          </cell>
           <cell r="F3">
-            <v>0</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="4">
@@ -4034,18 +4037,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4351,8 +4354,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4673,7 +4676,7 @@
       </c>
       <c r="B13" s="19" t="str">
         <f>IF([1]FormTitan!B3="", "", [1]FormTitan!B3)</f>
-        <v/>
+        <v>IQC BLK POW</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -4696,7 +4699,7 @@
       </c>
       <c r="B14" s="27">
         <f>IF([1]FormTitan!F3="", "", [1]FormTitan!F3)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -5100,7 +5103,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
@@ -5116,101 +5119,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="64">
+      <c r="B3" s="69"/>
+      <c r="C3" s="76">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="65">
+      <c r="B4" s="69"/>
+      <c r="C4" s="77">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="66" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="69" t="str">
+      <c r="B7" s="69"/>
+      <c r="C7" s="81" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5241,31 +5244,31 @@
         <f>Form!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="66">
         <f>Form!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="46" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -5275,26 +5278,26 @@
         <f>Form!B9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
@@ -5314,11 +5317,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5326,39 +5329,39 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="str">
+      <c r="A19" s="40" t="str">
         <f>Form!G27</f>
         <v>Sampel IQC :     ☐ Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="37" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39" t="str">
+      <c r="E20" s="83"/>
+      <c r="F20" s="84" t="str">
         <f>Form!B13</f>
-        <v/>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+        <v>IQC BLK POW</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
@@ -5368,9 +5371,9 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="77"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
       <c r="F22" s="11"/>
@@ -5378,56 +5381,56 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="76" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="84" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="44" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="45"/>
+      <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="37" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39" t="str">
+      <c r="E25" s="83"/>
+      <c r="F25" s="84" t="str">
         <f>Form!B16</f>
         <v/>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="18" t="s">
         <v>20</v>
       </c>
@@ -5437,9 +5440,9 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="77"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
       <c r="F27" s="11"/>
@@ -5447,56 +5450,56 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="76" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="73" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="44" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="37" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39" t="str">
+      <c r="E30" s="83"/>
+      <c r="F30" s="84" t="str">
         <f>Form!B19</f>
         <v/>
       </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="85"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
@@ -5506,9 +5509,9 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="77"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
       <c r="F32" s="11"/>
@@ -5516,34 +5519,34 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="76" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="73" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="44" t="s">
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="45"/>
+      <c r="H34" s="57"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -5567,18 +5570,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="G34:H34"/>
@@ -5595,30 +5610,18 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Desktop/Borang baru Edited/Digestion/Titan/RB & IQC.xlsx
+++ b/Desktop/Borang baru Edited/Digestion/Titan/RB & IQC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\Digestion\Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4931350C-E349-44B2-8928-9D9AC49B20C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DC80B-533D-4B96-AC14-84C445350F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="2" r:id="rId1"/>
@@ -953,146 +953,146 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2768,7 +2768,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>50.000</a:t>
+            <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -2972,7 +2972,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0.500</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3194,7 +3194,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>61.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3416,7 +3416,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>11.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -4014,11 +4014,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="B3" t="str">
-            <v>IQC BLK POW</v>
-          </cell>
           <cell r="F3">
-            <v>50</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
@@ -4354,7 +4351,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4676,7 +4673,7 @@
       </c>
       <c r="B13" s="19" t="str">
         <f>IF([1]FormTitan!B3="", "", [1]FormTitan!B3)</f>
-        <v>IQC BLK POW</v>
+        <v/>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -4699,7 +4696,7 @@
       </c>
       <c r="B14" s="27">
         <f>IF([1]FormTitan!F3="", "", [1]FormTitan!F3)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -5103,8 +5100,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5119,101 +5116,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="76">
+      <c r="B3" s="56"/>
+      <c r="C3" s="64">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="77">
+      <c r="B4" s="56"/>
+      <c r="C4" s="85">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="78" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="81" t="str">
+      <c r="B7" s="56"/>
+      <c r="C7" s="68" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5244,31 +5241,31 @@
         <f>Form!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="53">
         <f>Form!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="59" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -5278,26 +5275,26 @@
         <f>Form!B9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
@@ -5317,11 +5314,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5329,39 +5326,39 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="str">
+      <c r="A19" s="61" t="str">
         <f>Form!G27</f>
         <v>Sampel IQC :     ☐ Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="82" t="s">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84" t="str">
+      <c r="E20" s="38"/>
+      <c r="F20" s="39" t="str">
         <f>Form!B13</f>
-        <v>IQC BLK POW</v>
-      </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+        <v/>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
@@ -5371,9 +5368,9 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
       <c r="F22" s="11"/>
@@ -5381,56 +5378,56 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="61"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="42" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="56" t="s">
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="57"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="82" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84" t="str">
+      <c r="E25" s="38"/>
+      <c r="F25" s="39" t="str">
         <f>Form!B16</f>
         <v/>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="18" t="s">
         <v>20</v>
       </c>
@@ -5440,9 +5437,9 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
       <c r="F27" s="11"/>
@@ -5450,56 +5447,56 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="44" t="s">
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="56" t="s">
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="57"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="82" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84" t="str">
+      <c r="E30" s="38"/>
+      <c r="F30" s="39" t="str">
         <f>Form!B19</f>
         <v/>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
@@ -5509,9 +5506,9 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
       <c r="F32" s="11"/>
@@ -5519,34 +5516,34 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="39" t="s">
+      <c r="B33" s="61"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="44" t="s">
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="56" t="s">
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="57"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -5570,14 +5567,34 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -5594,34 +5611,14 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
